--- a/medicine/Soins infirmiers et profession infirmière/1913_en_santé_et_médecine/1913_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1913_en_santé_et_médecine/1913_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1913_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1913_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1913 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1913_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1913_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,21 +525,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Europe
-1er février : fondation de la Société d'histoire de la pharmacie, et de son organe, le Bulletin de la Société d'histoire de la pharmacie, devenu Revue d'histoire de la pharmacie en 1930[1].
-12 juin : la loi Strauss accorde en France un congé de maternité de quatre semaines après l'accouchement, avec une faible indemnité journalière[2].
-27 juin : Roger Glénard soutient sa thèse sur Les Mouvements de l’intestin en circulation artificielle[3].
-30 octobre : fondation de la Société psychanalytique de Londres (London Psychoanalytical Society) par Ernest Jones[4]. Elle deviendra la Société britannique de psychanalyse (British Psychoanalytical Society) le 20 février 1919.
-Avec Jean Camus, Gustave Roussy entame à la faculté de médecine de Paris une série d'explorations de la région hypophyso-infundibulaire[5],[6].
-Création de La Croix d'or, mouvement catholique de lutte contre l'alcoolisme, devenu Alcool assistance[7].
-Adoption au Royaume-Uni du Mental Deficiency Act (en) qui prévoit le classement, l'internement et la surveillance des handicapés mentaux[8].
-Constantin Levaditi effectue une mission d’étude en Suède lors de l’épidémie de poliomyélite[9].
-Amérique
-Fondation de l'Association américaine des immunologistes (American Association of Immunologists)[10].
-Fondation de l'Association américaine d'hygiène sociale (American Social Hygiene Association)[11].
-Fondation du Collège américain des chirurgiens (American College of Surgeons)[12].
-Afrique
-16 avril : Albert et Hélène Schweitzer débarquent en pirogue à Lambaréné, où ils fondent leur premier hôpital sur le terrain de la mission évangélique de Paris[13].</t>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er février : fondation de la Société d'histoire de la pharmacie, et de son organe, le Bulletin de la Société d'histoire de la pharmacie, devenu Revue d'histoire de la pharmacie en 1930.
+12 juin : la loi Strauss accorde en France un congé de maternité de quatre semaines après l'accouchement, avec une faible indemnité journalière.
+27 juin : Roger Glénard soutient sa thèse sur Les Mouvements de l’intestin en circulation artificielle.
+30 octobre : fondation de la Société psychanalytique de Londres (London Psychoanalytical Society) par Ernest Jones. Elle deviendra la Société britannique de psychanalyse (British Psychoanalytical Society) le 20 février 1919.
+Avec Jean Camus, Gustave Roussy entame à la faculté de médecine de Paris une série d'explorations de la région hypophyso-infundibulaire,.
+Création de La Croix d'or, mouvement catholique de lutte contre l'alcoolisme, devenu Alcool assistance.
+Adoption au Royaume-Uni du Mental Deficiency Act (en) qui prévoit le classement, l'internement et la surveillance des handicapés mentaux.
+Constantin Levaditi effectue une mission d’étude en Suède lors de l’épidémie de poliomyélite.</t>
         </is>
       </c>
     </row>
@@ -537,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1913_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1913_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,12 +563,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Prix</t>
+          <t>Événements</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Prix Nobel de médecine : Charles Richet, « en reconnaissance de ses travaux sur l'anaphylaxie[14] ».</t>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fondation de l'Association américaine des immunologistes (American Association of Immunologists).
+Fondation de l'Association américaine d'hygiène sociale (American Social Hygiene Association).
+Fondation du Collège américain des chirurgiens (American College of Surgeons).</t>
         </is>
       </c>
     </row>
@@ -567,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1913_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1913_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,12 +601,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Publication</t>
+          <t>Événements</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Freud publie Totem et Tabou.</t>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>16 avril : Albert et Hélène Schweitzer débarquent en pirogue à Lambaréné, où ils fondent leur premier hôpital sur le terrain de la mission évangélique de Paris.</t>
         </is>
       </c>
     </row>
@@ -597,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1913_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1913_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,14 +637,80 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix Nobel de médecine : Charles Richet, « en reconnaissance de ses travaux sur l'anaphylaxie ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1913_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1913_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publication</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Freud publie Totem et Tabou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1913_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1913_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>27 février : Paul Ricœur  (mort en 2005), philosophe français, penseur de la relation de soins comme « alliance thérapeutique[15] ».
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>27 février : Paul Ricœur  (mort en 2005), philosophe français, penseur de la relation de soins comme « alliance thérapeutique ».
 30 mars : Herbert Le Porrier (mort en 1977), médecin et écrivain français.
-11 avril : Pierre Magnin (mort en 2001), obstétricien français[16].
+11 avril : Pierre Magnin (mort en 2001), obstétricien français.
 3 mai : René Küss (mort en 2006), chirurgien français, pionnier de la transplantation rénale.
 7 mai : Jean Lassner (mort en 2007), médecin français d'origine autrichienne, pionnier de l’anesthésie.
 18 mai : Vincent Dole (mort en 2006), médecin américain.
@@ -636,44 +727,46 @@
 21 décembre : Jacques Oudot (mort en 1953), pharmacien, médecin, chirurgien et alpiniste français, pionnier de la chirurgie vasculaire.
 Date inconnue
 Eugène Lazowski (mort en 2006), médecin polonais.
-Pierre Lequime (mort en 1990), généraliste et urologue belge[17].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1913_en_sant%C3%A9_et_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+Pierre Lequime (mort en 1990), généraliste et urologue belge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1913_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/1913_en_sant%C3%A9_et_m%C3%A9decine</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1er janvier : Jean-Marc Morax (né en 1838), médecin vaudois.
 25 janvier : Paulin-Méry (né en 1860), médecin et homme politique français.
 22 mars : Ruggero Oddi (né en 1864), anatomiste et physiologiste italien.
-26 avril : Sigismond Jaccoud (né en 1830), pathologiste d'origine suisse naturalisé français, auteur du  « Jaccoud[18] ».
+26 avril : Sigismond Jaccoud (né en 1830), pathologiste d'origine suisse naturalisé français, auteur du  « Jaccoud ».
 29 juin : Jules Thiriar (né en 1846), chirurgien et homme politique belge.
 26 juillet : Louis Bourget (né en 1856), pharmacien et médecin vaudois.
 31 août : Erwin Bälz (né en 1849), interniste et anthropologue allemand, médecin personnel de la famille impériale du Japon.
-9 septembre : Adolphe Cureau (né en 1864), médecin français, officier du corps de santé de la Marine et administrateur colonial[19].
+9 septembre : Adolphe Cureau (né en 1864), médecin français, officier du corps de santé de la Marine et administrateur colonial.
 15 septembre : Antonin Poncet (né en 1848), chirurgien et physiopathologiste français, l'un des promoteurs de l’antisepsie puis de l’asepsie.
 22 septembre : Ernest Malinvaud (né en 1836), médecin et botaniste français.
 20 octobre : Daniel David Palmer (né en 1845), fondateur de la chiropratique.
@@ -682,7 +775,7 @@
 Félix Le Double (né en 1848), médecin anatomiste français.
 23 octobre : Edwin Klebs (né en 1834), médecin allemand, découvreur en 1883 du bacille de la diphtérie dit de Löffler-Klebs.
 4 novembre : Mathieu Jaboulay (né en 1860), chirurgien français, auteur d'une importante contribution à la chirurgie digestive.
-25 novembre : Jean De Boeck (né en 1863), psychiatre belge[20],[21].
+25 novembre : Jean De Boeck (né en 1863), psychiatre belge,.
 22 décembre : Francisco Portela (en) (né en 1833), médecin et homme politique brésilien.</t>
         </is>
       </c>
